--- a/nikon-true.xlsx
+++ b/nikon-true.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farza Nurifan\Documents\OneDrive\Dokumen\Code Paper\Tugas Akhir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2C7FB0-756E-4F77-A51E-7EFA0196D13E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TP</t>
   </si>
@@ -51,28 +35,13 @@
   </si>
   <si>
     <t>f1</t>
-  </si>
-  <si>
-    <t>acc</t>
-  </si>
-  <si>
-    <t>AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,25 +89,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -147,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="D2 D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,146 +420,109 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>0.50526315789473686</v>
+        <v>0.381489841986456</v>
       </c>
       <c r="G2">
-        <v>0.69902912621359226</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="H2">
-        <v>0.58655804480651741</v>
-      </c>
-      <c r="J2">
-        <f>SUM(B2:C2)/SUM(B2:E2)</f>
-        <v>0.70958512160228904</v>
+        <v>0.5208012326656395</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="C3">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>0.89066666666666672</v>
+        <v>0.8033126293995859</v>
       </c>
       <c r="G3">
-        <v>0.80095923261390889</v>
+        <v>0.9304556354916067</v>
       </c>
       <c r="H3">
-        <v>0.84343434343434343</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="0">SUM(B3:C3)/SUM(B3:E3)</f>
-        <v>0.8226037195994278</v>
+        <v>0.8622222222222222</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>0.81208053691275173</v>
+        <v>0.8152866242038217</v>
       </c>
       <c r="G4">
-        <v>0.70760233918128657</v>
+        <v>0.7485380116959064</v>
       </c>
       <c r="H4">
-        <v>0.75625000000000009</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.88841201716738194</v>
+        <v>0.7804878048780487</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>108</v>
       </c>
       <c r="C5">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>329</v>
+        <v>482</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.24713958810068651</v>
+        <v>0.1830508474576271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.39633027522935782</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.52932761087267521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <f>AVERAGE(F2:F5)</f>
-        <v>0.61378748739371047</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE(G2:G5)</f>
-        <v>0.80189767450219696</v>
-      </c>
-      <c r="H7">
-        <f>AVERAGE(H2:H5)</f>
-        <v>0.64564316586755466</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGE(J2:J5)</f>
-        <v>0.73748211731044355</v>
+        <v>0.3094555873925501</v>
       </c>
     </row>
   </sheetData>

--- a/nikon-true.xlsx
+++ b/nikon-true.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>371</v>
       </c>
       <c r="D2">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>0.381489841986456</v>
+        <v>0.5215686274509804</v>
       </c>
       <c r="G2">
-        <v>0.8203883495145631</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="H2">
-        <v>0.5208012326656395</v>
+        <v>0.5770065075921909</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>388</v>
+        <v>329</v>
       </c>
       <c r="C3">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>0.8033126293995859</v>
+        <v>0.8820375335120644</v>
       </c>
       <c r="G3">
-        <v>0.9304556354916067</v>
+        <v>0.7889688249400479</v>
       </c>
       <c r="H3">
-        <v>0.8622222222222222</v>
+        <v>0.8329113924050634</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>0.8152866242038217</v>
+        <v>0.7607361963190185</v>
       </c>
       <c r="G4">
-        <v>0.7485380116959064</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="H4">
-        <v>0.7804878048780487</v>
+        <v>0.7425149700598803</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>108</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="D5">
-        <v>482</v>
+        <v>312</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1830508474576271</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.3094555873925501</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
   </sheetData>
